--- a/data/Dantec14add/Dantec14_fj.xlsx
+++ b/data/Dantec14add/Dantec14_fj.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faith Jones\Documents\ubc\away week\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faith Jones\Documents\ubc\github\ospree\data\Dantec14add\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6535655-DE88-44AC-BD2E-71263B9D0E0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31939EC3-4C7E-4A97-8561-F78CAEE1F2A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -803,7 +803,7 @@
     <t>FJ</t>
   </si>
   <si>
-    <t>exp 1</t>
+    <t>exp 2</t>
   </si>
   <si>
     <t>Quercus petraea, Fagus silvatica</t>
@@ -2484,9 +2484,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T9" sqref="T9"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2599,8 +2599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BA48"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE34" sqref="AE34"/>
+    <sheetView tabSelected="1" topLeftCell="X18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH33" sqref="AH33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2829,10 +2829,10 @@
         <v>250</v>
       </c>
       <c r="Z2" s="9">
-        <v>307.08699999999999</v>
+        <v>334.64600000000002</v>
       </c>
       <c r="AH2" s="9">
-        <v>0.30199999999999999</v>
+        <v>0.151</v>
       </c>
       <c r="AI2" s="19" t="s">
         <v>251</v>
@@ -2912,10 +2912,10 @@
         <v>250</v>
       </c>
       <c r="Z3" s="9">
-        <v>334.64600000000002</v>
+        <v>307.08699999999999</v>
       </c>
       <c r="AH3" s="9">
-        <v>0.151</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="AI3" s="19" t="s">
         <v>251</v>
@@ -4824,7 +4824,7 @@
         <v>539.93100000000004</v>
       </c>
       <c r="AH26" s="9">
-        <v>-3.048</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="19" t="s">
         <v>251</v>
@@ -5485,10 +5485,10 @@
         <v>250</v>
       </c>
       <c r="Z34" s="9">
-        <v>456.59699999999998</v>
+        <v>368.05599999999998</v>
       </c>
       <c r="AH34" s="9">
-        <v>480.50799999999998</v>
+        <v>474.41300000000001</v>
       </c>
       <c r="AI34" s="19" t="s">
         <v>251</v>
@@ -5568,10 +5568,10 @@
         <v>250</v>
       </c>
       <c r="Z35" s="9">
-        <v>368.05599999999998</v>
+        <v>456.59699999999998</v>
       </c>
       <c r="AH35" s="9">
-        <v>474.41300000000001</v>
+        <v>480.50799999999998</v>
       </c>
       <c r="AI35" s="19" t="s">
         <v>251</v>
